--- a/Dokumen Pekerjaan/Data_RajaQR Database v.2 (1).xlsx
+++ b/Dokumen Pekerjaan/Data_RajaQR Database v.2 (1).xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="249">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -726,6 +726,9 @@
     <t xml:space="preserve">Persona : Pengawas (yang memiliki N-1 dan N+1)</t>
   </si>
   <si>
+    <t xml:space="preserve">x` </t>
+  </si>
+  <si>
     <t xml:space="preserve">Main Features II - Uji Kompetensi</t>
   </si>
   <si>
@@ -1019,12 +1022,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -9084,8 +9087,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D98" activeCellId="0" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9422,27 +9425,27 @@
       <c r="Z9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -9462,25 +9465,25 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -9500,27 +9503,27 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -9540,25 +9543,25 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -9577,7 +9580,7 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="18" t="s">
         <v>171</v>
@@ -9617,7 +9620,7 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
@@ -9655,7 +9658,7 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
     </row>
-    <row r="16" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18" t="s">
@@ -9693,7 +9696,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="18"/>
       <c r="B17" s="18" t="s">
         <v>178</v>
@@ -9733,7 +9736,7 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18" t="s">
@@ -9771,7 +9774,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
@@ -9809,7 +9812,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="18" t="s">
         <v>185</v>
@@ -9849,7 +9852,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18" t="s">
@@ -9887,7 +9890,7 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18" t="s">
@@ -9925,7 +9928,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="18"/>
       <c r="B23" s="18" t="s">
         <v>186</v>
@@ -9965,7 +9968,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18"/>
       <c r="B24" s="18" t="s">
         <v>189</v>
@@ -10005,7 +10008,7 @@
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
     </row>
-    <row r="25" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -10057,7 +10060,7 @@
       <c r="G26" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="24" t="s">
+      <c r="H26" s="25" t="s">
         <v>153</v>
       </c>
       <c r="I26" s="13"/>
@@ -10415,7 +10418,7 @@
         <v>152</v>
       </c>
       <c r="G36" s="15"/>
-      <c r="H36" s="24" t="s">
+      <c r="H36" s="25" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="13"/>
@@ -10453,7 +10456,7 @@
       <c r="G37" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H37" s="24" t="s">
+      <c r="H37" s="25" t="s">
         <v>153</v>
       </c>
       <c r="I37" s="13"/>
@@ -10491,7 +10494,7 @@
         <v>152</v>
       </c>
       <c r="G38" s="15"/>
-      <c r="H38" s="24" t="s">
+      <c r="H38" s="25" t="s">
         <v>153</v>
       </c>
       <c r="I38" s="13"/>
@@ -10531,7 +10534,7 @@
         <v>152</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="24" t="s">
+      <c r="H39" s="25" t="s">
         <v>153</v>
       </c>
       <c r="I39" s="26"/>
@@ -11332,7 +11335,9 @@
       <c r="H61" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="I61" s="13"/>
+      <c r="I61" s="13" t="s">
+        <v>224</v>
+      </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
       <c r="L61" s="13"/>
@@ -11467,23 +11472,23 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="13"/>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F65" s="15" t="s">
+      <c r="F65" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="15"/>
-      <c r="H65" s="24" t="s">
+      <c r="G65" s="19"/>
+      <c r="H65" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I65" s="13"/>
@@ -11507,21 +11512,21 @@
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15" t="s">
+      <c r="F66" s="19"/>
+      <c r="G66" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H66" s="24" t="s">
+      <c r="H66" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I66" s="13"/>
@@ -11545,23 +11550,23 @@
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="13"/>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="15"/>
-      <c r="H67" s="24" t="s">
+      <c r="G67" s="19"/>
+      <c r="H67" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I67" s="13"/>
@@ -11585,21 +11590,21 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E68" s="13" t="s">
+      <c r="E68" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="15" t="s">
+      <c r="F68" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15" t="s">
+      <c r="G68" s="19"/>
+      <c r="H68" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I68" s="13"/>
@@ -11664,20 +11669,20 @@
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="D70" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E70" s="13" t="s">
+      <c r="E70" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="15" t="s">
+      <c r="F70" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G70" s="15"/>
-      <c r="H70" s="24" t="s">
+      <c r="G70" s="19"/>
+      <c r="H70" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I70" s="13"/>
@@ -11816,16 +11821,16 @@
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="13"/>
       <c r="B74" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>150</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F74" s="19" t="s">
         <v>152</v>
@@ -11855,23 +11860,23 @@
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="13"/>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15" t="s">
+      <c r="G75" s="19"/>
+      <c r="H75" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I75" s="13"/>
@@ -11895,21 +11900,21 @@
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15" t="s">
+      <c r="F76" s="19"/>
+      <c r="G76" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H76" s="24" t="s">
+      <c r="H76" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I76" s="13"/>
@@ -11933,23 +11938,23 @@
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13"/>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="15" t="s">
+      <c r="F77" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="H77" s="24" t="s">
+      <c r="G77" s="19"/>
+      <c r="H77" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I77" s="13"/>
@@ -11973,21 +11978,21 @@
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="15" t="s">
+      <c r="F78" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="H78" s="24" t="s">
+      <c r="G78" s="19"/>
+      <c r="H78" s="20" t="s">
         <v>153</v>
       </c>
       <c r="I78" s="13"/>
@@ -12399,23 +12404,23 @@
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="13" t="s">
+      <c r="E89" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="F89" s="15" t="s">
+      <c r="F89" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15" t="s">
+      <c r="G89" s="19"/>
+      <c r="H89" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I89" s="13"/>
@@ -12439,19 +12444,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E90" s="13" t="s">
+      <c r="E90" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="15" t="s">
+      <c r="F90" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15" t="s">
+      <c r="G90" s="19"/>
+      <c r="H90" s="19" t="s">
         <v>165</v>
       </c>
       <c r="I90" s="13"/>
@@ -38046,12 +38051,12 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.75"/>
@@ -38068,43 +38073,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H1" s="32" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I1" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J1" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K1" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38112,40 +38117,40 @@
         <v>91223039480</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="5" t="n">
         <v>5000099909</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>5090903930</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H2" s="32" t="n">
         <v>2093091293</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J2" s="32" t="n">
         <v>8398990098</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L2" s="32" t="n">
         <v>93847593823</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -38186,7 +38191,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="G4" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
